--- a/bdd_excel/Mecaniques.xlsx
+++ b/bdd_excel/Mecaniques.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucap\Desktop\Ecole\ENSEIRB\S7\SGBD\Projet\BDD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/florianbour/Desktop/ENSEIRB/2A/SGBD/sgbd-jeux/bdd_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A64FD43-450A-4A8B-8F14-DBED8F5F89E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32B5F67-F208-9944-99BB-4302F9C12071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{609E3C0A-7485-4EA9-9E68-461C4BE194E4}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="10300" xr2:uid="{609E3C0A-7485-4EA9-9E68-461C4BE194E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -41,67 +41,67 @@
     <t>description_mecanique</t>
   </si>
   <si>
-    <t>Strategie</t>
-  </si>
-  <si>
-    <t>Placement</t>
-  </si>
-  <si>
-    <t>Reflexion</t>
-  </si>
-  <si>
-    <t>Hasard</t>
-  </si>
-  <si>
-    <t>Cartes</t>
-  </si>
-  <si>
-    <t>Ressources</t>
-  </si>
-  <si>
-    <t>Tuiles</t>
-  </si>
-  <si>
-    <t>Construction</t>
-  </si>
-  <si>
-    <t>Prise de Risque</t>
-  </si>
-  <si>
-    <t>Pari</t>
-  </si>
-  <si>
-    <t>Encheres</t>
-  </si>
-  <si>
-    <t>Anticipation</t>
-  </si>
-  <si>
-    <t>Enquete</t>
-  </si>
-  <si>
-    <t>Bluff</t>
-  </si>
-  <si>
-    <t>Draft</t>
-  </si>
-  <si>
-    <t>Commerce</t>
-  </si>
-  <si>
-    <t>Imagination</t>
-  </si>
-  <si>
-    <t>Cooperation</t>
-  </si>
-  <si>
-    <t>Equipe</t>
-  </si>
-  <si>
-    <t>Meeple</t>
-  </si>
-  <si>
-    <t>De</t>
+    <t>'Strategie'</t>
+  </si>
+  <si>
+    <t>'Placement'</t>
+  </si>
+  <si>
+    <t>'Reflexion'</t>
+  </si>
+  <si>
+    <t>'Hasard'</t>
+  </si>
+  <si>
+    <t>'Cartes'</t>
+  </si>
+  <si>
+    <t>'Ressources'</t>
+  </si>
+  <si>
+    <t>'Tuiles'</t>
+  </si>
+  <si>
+    <t>'Construction'</t>
+  </si>
+  <si>
+    <t>'Prise de Risque'</t>
+  </si>
+  <si>
+    <t>'Pari'</t>
+  </si>
+  <si>
+    <t>'Encheres'</t>
+  </si>
+  <si>
+    <t>'Anticipation'</t>
+  </si>
+  <si>
+    <t>'Enquete'</t>
+  </si>
+  <si>
+    <t>'Bluff'</t>
+  </si>
+  <si>
+    <t>'Draft'</t>
+  </si>
+  <si>
+    <t>'Commerce'</t>
+  </si>
+  <si>
+    <t>'Imagination'</t>
+  </si>
+  <si>
+    <t>'Cooperation'</t>
+  </si>
+  <si>
+    <t>'Equipe'</t>
+  </si>
+  <si>
+    <t>'Meeple'</t>
+  </si>
+  <si>
+    <t>'De'</t>
   </si>
 </sst>
 </file>
@@ -456,16 +456,16 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.36328125" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -473,7 +473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -481,7 +481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -489,7 +489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -497,7 +497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -505,7 +505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -513,7 +513,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -521,7 +521,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -529,7 +529,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -537,7 +537,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -545,7 +545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -553,7 +553,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -561,7 +561,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -569,7 +569,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -577,7 +577,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -585,7 +585,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -593,7 +593,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -601,7 +601,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -609,7 +609,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -617,7 +617,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -625,7 +625,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -633,7 +633,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
